--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 AR.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>Course</t>
   </si>
@@ -118,6 +118,69 @@
     <t>ARTS-111</t>
   </si>
   <si>
+    <t>ARTS-149</t>
+  </si>
+  <si>
+    <t>SUTHERLAND S</t>
+  </si>
+  <si>
+    <t>57.81%</t>
+  </si>
+  <si>
+    <t>23.44%</t>
+  </si>
+  <si>
+    <t>15.63%</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>ARTS-150</t>
+  </si>
+  <si>
+    <t>CAMPANA L</t>
+  </si>
+  <si>
+    <t>98.48%</t>
+  </si>
+  <si>
+    <t>1.52%</t>
+  </si>
+  <si>
+    <t>STOENESCU L</t>
+  </si>
+  <si>
+    <t>95.65%</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
+    <t>78.69%</t>
+  </si>
+  <si>
+    <t>19.67%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>ARTS-212</t>
+  </si>
+  <si>
+    <t>WOODFIN S</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>ARTS-310</t>
   </si>
   <si>
@@ -178,6 +241,15 @@
     <t>6.67%</t>
   </si>
   <si>
+    <t>CARC-331</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>ERMINY M</t>
+  </si>
+  <si>
     <t>COSC-175</t>
   </si>
   <si>
@@ -256,9 +328,6 @@
     <t>25.00%</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>COSC-325</t>
   </si>
   <si>
@@ -382,12 +451,6 @@
     <t>COSC-474</t>
   </si>
   <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
     <t>COSC-475</t>
   </si>
   <si>
@@ -406,7 +469,7 @@
     <t>COSC-603</t>
   </si>
   <si>
-    <t>LAND A</t>
+    <t>RYOO B</t>
   </si>
   <si>
     <t>9.09%</t>
@@ -418,21 +481,6 @@
     <t>27.27%</t>
   </si>
   <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
-    <t>ARCHITECTURE D</t>
-  </si>
-  <si>
-    <t>RYOO B</t>
-  </si>
-  <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION S</t>
-  </si>
-  <si>
     <t>ENDS-101</t>
   </si>
   <si>
@@ -451,12 +499,12 @@
     <t>ENDS-105</t>
   </si>
   <si>
+    <t>MEHRJARDI N</t>
+  </si>
+  <si>
     <t>36.36%</t>
   </si>
   <si>
-    <t>MEHRJARDI N</t>
-  </si>
-  <si>
     <t>ENDS-106</t>
   </si>
   <si>
@@ -481,12 +529,6 @@
     <t>62.50%</t>
   </si>
   <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
-    <t>COLLEGE O</t>
-  </si>
-  <si>
     <t>LAND-200</t>
   </si>
   <si>
@@ -605,9 +647,6 @@
   </si>
   <si>
     <t>VIZA-689</t>
-  </si>
-  <si>
-    <t>COLLEGE T</t>
   </si>
 </sst>
 </file>
@@ -944,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,67 +1195,67 @@
         <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>3.857</v>
+        <v>3.344</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>3.954</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
-        <v>3.1</v>
+        <v>3.956</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -1225,32 +1264,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.754</v>
+      </c>
+      <c r="D26" t="s">
         <v>47</v>
       </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="A28" t="s">
         <v>50</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1258,16 +1297,16 @@
         <v>51</v>
       </c>
       <c r="C29" t="n">
-        <v>3.333</v>
+        <v>3.667</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -1278,21 +1317,21 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="n">
-        <v>3.84</v>
+        <v>3.857</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1311,103 +1350,144 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="C35" t="n">
-        <v>2.824</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>61</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>62</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
       <c r="H35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s">
-        <v>66</v>
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.068</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>72</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C44" t="n">
-        <v>3.0335</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -1418,52 +1498,52 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" t="n">
-        <v>2.75</v>
+        <v>3.84</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" t="n">
-        <v>3.217</v>
+        <v>2.824</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -1474,52 +1554,52 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C53" t="n">
-        <v>3.2</v>
+        <v>2.31</v>
       </c>
       <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
         <v>88</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>89</v>
       </c>
-      <c r="F53" t="s">
-        <v>57</v>
-      </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C56" t="n">
-        <v>3.219</v>
+        <v>3.068</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -1530,24 +1610,24 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C59" t="n">
-        <v>3.762</v>
+        <v>3.0335</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -1558,52 +1638,52 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C62" t="n">
-        <v>3.238</v>
+        <v>2.75</v>
       </c>
       <c r="D62" t="s">
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C65" t="n">
-        <v>3.72</v>
+        <v>3.217</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -1614,27 +1694,27 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C68" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -1642,24 +1722,24 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C71" t="n">
-        <v>3.467</v>
+        <v>3.219</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -1670,24 +1750,24 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C74" t="n">
-        <v>3.583</v>
+        <v>3.762</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -1698,24 +1778,24 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C77" t="n">
-        <v>3.209</v>
+        <v>3.238</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -1726,24 +1806,24 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C80" t="n">
-        <v>3.667</v>
+        <v>3.72</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -1754,27 +1834,27 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C83" t="n">
-        <v>3.135</v>
+        <v>3.54</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
@@ -1782,24 +1862,24 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C86" t="n">
-        <v>3.483</v>
+        <v>3.467</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -1810,218 +1890,136 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C89" t="n">
-        <v>2.546</v>
+        <v>3.583</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="D90" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" t="s">
-        <v>133</v>
-      </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="D91" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" t="s">
-        <v>133</v>
-      </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" t="s">
-        <v>131</v>
+      <c r="A91" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" t="n">
-        <v>2.546</v>
+        <v>3.209</v>
       </c>
       <c r="D92" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" t="s">
+        <v>143</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="D98" t="s">
         <v>131</v>
       </c>
-      <c r="E92" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E98" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" t="s">
         <v>133</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="D93" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" t="s">
-        <v>132</v>
-      </c>
-      <c r="F93" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="D94" t="s">
-        <v>131</v>
-      </c>
-      <c r="E94" t="s">
-        <v>132</v>
-      </c>
-      <c r="F94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="D97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" t="s">
-        <v>142</v>
-      </c>
-      <c r="F97" t="s">
-        <v>143</v>
-      </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>144</v>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="D100" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" t="s">
-        <v>145</v>
-      </c>
-      <c r="F100" t="s">
-        <v>131</v>
-      </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" t="s">
-        <v>12</v>
+      <c r="A100" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C101" t="n">
-        <v>3.454</v>
+        <v>3.483</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
@@ -2032,52 +2030,52 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C104" t="n">
-        <v>3.2</v>
+        <v>2.546</v>
       </c>
       <c r="D104" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C107" t="n">
-        <v>3.727</v>
+        <v>3.925</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
@@ -2088,24 +2086,24 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>3.454</v>
       </c>
       <c r="D110" t="s">
         <v>153</v>
       </c>
       <c r="E110" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -2114,301 +2112,219 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>134</v>
-      </c>
-      <c r="C111" t="n">
-        <v>3</v>
-      </c>
-      <c r="D111" t="s">
-        <v>153</v>
-      </c>
-      <c r="E111" t="s">
-        <v>154</v>
-      </c>
-      <c r="F111" t="s">
-        <v>153</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3</v>
-      </c>
-      <c r="D112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E112" t="s">
-        <v>154</v>
-      </c>
-      <c r="F112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>12</v>
+      <c r="A112" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="D116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F116" t="s">
+        <v>152</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" t="n">
         <v>3</v>
       </c>
-      <c r="D113" t="s">
-        <v>153</v>
-      </c>
-      <c r="E113" t="s">
-        <v>154</v>
-      </c>
-      <c r="F113" t="s">
-        <v>153</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3</v>
-      </c>
-      <c r="D114" t="s">
-        <v>153</v>
-      </c>
-      <c r="E114" t="s">
-        <v>154</v>
-      </c>
-      <c r="F114" t="s">
-        <v>153</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="B115" t="s">
-        <v>156</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3</v>
-      </c>
-      <c r="D115" t="s">
-        <v>153</v>
-      </c>
-      <c r="E115" t="s">
-        <v>154</v>
-      </c>
-      <c r="F115" t="s">
-        <v>153</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="B118" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" t="n">
+      <c r="D119" t="s">
+        <v>169</v>
+      </c>
+      <c r="E119" t="s">
+        <v>170</v>
+      </c>
+      <c r="F119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" t="n">
         <v>3.875</v>
       </c>
-      <c r="D118" t="s">
-        <v>158</v>
-      </c>
-      <c r="E118" t="s">
-        <v>159</v>
-      </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="B121" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" t="n">
+      <c r="D122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" t="s">
+        <v>173</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" t="n">
         <v>3.303</v>
       </c>
-      <c r="D121" t="s">
-        <v>162</v>
-      </c>
-      <c r="E121" t="s">
-        <v>163</v>
-      </c>
-      <c r="F121" t="s">
-        <v>164</v>
-      </c>
-      <c r="G121" t="s">
-        <v>165</v>
-      </c>
-      <c r="H121" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="B124" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" t="n">
+      <c r="D125" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" t="s">
+        <v>177</v>
+      </c>
+      <c r="F125" t="s">
+        <v>178</v>
+      </c>
+      <c r="G125" t="s">
+        <v>179</v>
+      </c>
+      <c r="H125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" t="n">
         <v>3.9</v>
       </c>
-      <c r="D124" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" t="s">
-        <v>169</v>
-      </c>
-      <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" t="s">
-        <v>171</v>
-      </c>
-      <c r="C127" t="n">
+      <c r="D128" t="s">
+        <v>182</v>
+      </c>
+      <c r="E128" t="s">
+        <v>183</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" t="s">
+        <v>185</v>
+      </c>
+      <c r="C131" t="n">
         <v>4</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D131" t="s">
         <v>32</v>
       </c>
-      <c r="E127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="B130" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>174</v>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>137</v>
-      </c>
-      <c r="C133" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D133" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
+      <c r="A133" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C134" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
@@ -2422,77 +2338,77 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C137" t="n">
-        <v>3.182</v>
+        <v>3.857</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="E137" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F137" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C140" t="n">
-        <v>3.909</v>
+        <v>3.182</v>
       </c>
       <c r="D140" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E140" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C143" t="n">
         <v>3.909</v>
       </c>
       <c r="D143" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E143" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
@@ -2504,64 +2420,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
-      <c r="B144" t="s">
-        <v>48</v>
-      </c>
-      <c r="C144" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="D144" t="s">
-        <v>179</v>
-      </c>
-      <c r="E144" t="s">
-        <v>131</v>
-      </c>
-      <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>134</v>
-      </c>
-      <c r="C145" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="D145" t="s">
-        <v>179</v>
-      </c>
-      <c r="E145" t="s">
-        <v>131</v>
-      </c>
-      <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" t="s">
-        <v>12</v>
+      <c r="A145" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C146" t="n">
         <v>3.909</v>
       </c>
       <c r="D146" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E146" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
@@ -2573,286 +2448,171 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="B147" t="s">
-        <v>137</v>
-      </c>
-      <c r="C147" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="D147" t="s">
-        <v>179</v>
-      </c>
-      <c r="E147" t="s">
-        <v>131</v>
-      </c>
-      <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="B150" t="s">
-        <v>182</v>
-      </c>
-      <c r="C150" t="n">
+      <c r="B149" t="s">
+        <v>196</v>
+      </c>
+      <c r="C149" t="n">
         <v>3.2055</v>
       </c>
-      <c r="D150" t="s">
-        <v>183</v>
-      </c>
-      <c r="E150" t="s">
-        <v>184</v>
-      </c>
-      <c r="F150" t="s">
-        <v>185</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>12</v>
+      <c r="D149" t="s">
+        <v>197</v>
+      </c>
+      <c r="E149" t="s">
+        <v>198</v>
+      </c>
+      <c r="F149" t="s">
+        <v>199</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="B153" t="s">
-        <v>187</v>
-      </c>
-      <c r="C153" t="n">
+      <c r="B152" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" t="n">
         <v>3.556</v>
       </c>
-      <c r="D153" t="s">
-        <v>188</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="D152" t="s">
+        <v>202</v>
+      </c>
+      <c r="E152" t="s">
         <v>28</v>
       </c>
-      <c r="F153" t="s">
-        <v>189</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
-        <v>12</v>
+      <c r="F152" t="s">
+        <v>203</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="B156" t="s">
-        <v>191</v>
-      </c>
-      <c r="C156" t="n">
+      <c r="B155" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" t="n">
         <v>4</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D155" t="s">
         <v>32</v>
       </c>
-      <c r="E156" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" t="s">
-        <v>12</v>
+      <c r="E155" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="B159" t="s">
-        <v>193</v>
-      </c>
-      <c r="C159" t="n">
+      <c r="B158" t="s">
+        <v>207</v>
+      </c>
+      <c r="C158" t="n">
         <v>4</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D158" t="s">
         <v>32</v>
       </c>
-      <c r="E159" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
-      <c r="H159" t="s">
-        <v>12</v>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="B162" t="s">
-        <v>195</v>
-      </c>
-      <c r="C162" t="n">
+      <c r="B161" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" t="n">
         <v>4</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D161" t="s">
         <v>32</v>
       </c>
-      <c r="E162" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
-      <c r="H162" t="s">
-        <v>12</v>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>197</v>
-      </c>
-      <c r="C165" t="n">
+      <c r="B164" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D164" t="s">
         <v>32</v>
       </c>
-      <c r="E165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="B166" t="s">
-        <v>137</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4</v>
-      </c>
-      <c r="D166" t="s">
-        <v>32</v>
-      </c>
-      <c r="E166" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
-      <c r="H166" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>195</v>
-      </c>
-      <c r="C167" t="n">
-        <v>4</v>
-      </c>
-      <c r="D167" t="s">
-        <v>32</v>
-      </c>
-      <c r="E167" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>134</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4</v>
-      </c>
-      <c r="D168" t="s">
-        <v>32</v>
-      </c>
-      <c r="E168" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
-      <c r="H168" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="B169" t="s">
-        <v>135</v>
-      </c>
-      <c r="C169" t="n">
-        <v>4</v>
-      </c>
-      <c r="D169" t="s">
-        <v>32</v>
-      </c>
-      <c r="E169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
-      <c r="H169" t="s">
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 AR.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 AR.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ARCH-249</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>14.29%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>ARCH-406</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>ARTS-111</t>
   </si>
   <si>
+    <t>7.69%</t>
+  </si>
+  <si>
     <t>ARTS-149</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
     <t>1.54%</t>
   </si>
   <si>
+    <t>4.41%</t>
+  </si>
+  <si>
     <t>DAVISON R</t>
   </si>
   <si>
@@ -220,6 +232,9 @@
     <t>20.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>CARC-311</t>
   </si>
   <si>
@@ -229,9 +244,6 @@
     <t>92.31%</t>
   </si>
   <si>
-    <t>7.69%</t>
-  </si>
-  <si>
     <t>ABBOTT E</t>
   </si>
   <si>
@@ -301,9 +313,6 @@
     <t>84.09%</t>
   </si>
   <si>
-    <t>4.55%</t>
-  </si>
-  <si>
     <t>COSC-301</t>
   </si>
   <si>
@@ -355,6 +364,9 @@
     <t>48.00%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>COSC-353</t>
   </si>
   <si>
@@ -457,6 +469,9 @@
     <t>81.08%</t>
   </si>
   <si>
+    <t>2.63%</t>
+  </si>
+  <si>
     <t>COSC-477</t>
   </si>
   <si>
@@ -496,6 +511,9 @@
     <t>0.58%</t>
   </si>
   <si>
+    <t>1.70%</t>
+  </si>
+  <si>
     <t>ENDS-105</t>
   </si>
   <si>
@@ -554,9 +572,6 @@
   </si>
   <si>
     <t>3.95%</t>
-  </si>
-  <si>
-    <t>2.63%</t>
   </si>
   <si>
     <t>LAND-630</t>
@@ -684,12 +699,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -983,15 +997,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,1604 +1030,1781 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.814</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>3.414</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>2.667</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>3.4</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>31</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
         <v>3.344</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
         <v>3.954</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C25" t="n">
         <v>3.956</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n">
         <v>3.754</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C29" t="n">
         <v>3.667</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C32" t="n">
         <v>3.857</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C36" t="n">
         <v>3.1</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C39" t="n">
         <v>3.923</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C40" t="n">
         <v>3.333</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C43" t="n">
         <v>3.067</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C47" t="n">
         <v>3.84</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C50" t="n">
         <v>2.824</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>83</v>
       </c>
       <c r="C53" t="n">
         <v>2.31</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C56" t="n">
         <v>3.068</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C59" t="n">
         <v>3.0335</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C62" t="n">
         <v>2.75</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C65" t="n">
         <v>3.217</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C68" t="n">
         <v>3.2</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C71" t="n">
         <v>3.219</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C74" t="n">
         <v>3.762</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C77" t="n">
         <v>3.238</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C80" t="n">
         <v>3.72</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C83" t="n">
         <v>3.54</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F83" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C86" t="n">
         <v>3.467</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C89" t="n">
         <v>3.583</v>
       </c>
       <c r="D89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="B92" t="s">
         <v>139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" t="s">
-        <v>54</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>135</v>
       </c>
       <c r="C92" t="n">
         <v>3.209</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E92" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F92" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C95" t="n">
         <v>3.667</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C98" t="n">
         <v>3.135</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C101" t="n">
         <v>3.483</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C104" t="n">
         <v>2.546</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C107" t="n">
         <v>3.925</v>
       </c>
       <c r="D107" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E107" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F107" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C110" t="n">
         <v>3.454</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F110" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C113" t="n">
         <v>3.2</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E113" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C116" t="n">
         <v>3.727</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E116" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C119" t="n">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E119" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F119" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C122" t="n">
         <v>3.875</v>
       </c>
       <c r="D122" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E122" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C125" t="n">
         <v>3.303</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E125" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F125" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G125" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H125" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="B128" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="B128" t="s">
-        <v>175</v>
       </c>
       <c r="C128" t="n">
         <v>3.9</v>
       </c>
       <c r="D128" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E128" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C137" t="n">
         <v>3.857</v>
       </c>
       <c r="D137" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C140" t="n">
         <v>3.182</v>
       </c>
       <c r="D140" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E140" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F140" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C143" t="n">
         <v>3.909</v>
       </c>
       <c r="D143" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E143" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C146" t="n">
         <v>3.909</v>
       </c>
       <c r="D146" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E146" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C149" t="n">
         <v>3.2055</v>
       </c>
       <c r="D149" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E149" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C152" t="n">
         <v>3.556</v>
       </c>
       <c r="D152" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E152" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 AR.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>Course</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>2.70%</t>
+  </si>
+  <si>
+    <t>COSC-442</t>
+  </si>
+  <si>
+    <t>FERNANDEZ-SOLIS J</t>
   </si>
   <si>
     <t>COSC-463</t>
@@ -983,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1870,16 +1876,16 @@
         <v>135</v>
       </c>
       <c r="C86" t="n">
-        <v>3.467</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -1890,24 +1896,24 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C89" t="n">
-        <v>3.583</v>
+        <v>3.467</v>
       </c>
       <c r="D89" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" t="s">
         <v>139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" t="s">
-        <v>54</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C92" t="n">
-        <v>3.209</v>
+        <v>3.583</v>
       </c>
       <c r="D92" t="s">
         <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="F92" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
@@ -1946,24 +1952,24 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C95" t="n">
-        <v>3.667</v>
+        <v>3.209</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
@@ -1974,24 +1980,24 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C98" t="n">
-        <v>3.135</v>
+        <v>3.667</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="F98" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="D101" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" t="s">
         <v>148</v>
       </c>
-      <c r="C101" t="n">
-        <v>3.483</v>
-      </c>
-      <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" t="s">
-        <v>149</v>
-      </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
@@ -2030,80 +2036,80 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
         <v>151</v>
       </c>
-      <c r="C104" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="D104" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" t="s">
-        <v>153</v>
-      </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" t="s">
         <v>156</v>
       </c>
-      <c r="C107" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="D107" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" t="s">
-        <v>158</v>
-      </c>
-      <c r="F107" t="s">
-        <v>159</v>
-      </c>
       <c r="G107" t="s">
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110" t="s">
         <v>161</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="D110" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" t="s">
-        <v>162</v>
-      </c>
-      <c r="F110" t="s">
-        <v>152</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -2114,24 +2120,24 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" t="s">
         <v>164</v>
       </c>
-      <c r="C113" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D113" t="s">
-        <v>73</v>
-      </c>
-      <c r="E113" t="s">
-        <v>73</v>
-      </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -2150,16 +2156,16 @@
         <v>166</v>
       </c>
       <c r="C116" t="n">
-        <v>3.727</v>
+        <v>3.2</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="E116" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -2170,24 +2176,24 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>3.727</v>
       </c>
       <c r="D119" t="s">
         <v>169</v>
       </c>
       <c r="E119" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F119" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -2198,24 +2204,24 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="C122" t="n">
-        <v>3.875</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
+        <v>171</v>
+      </c>
+      <c r="E122" t="s">
         <v>172</v>
       </c>
-      <c r="E122" t="s">
-        <v>173</v>
-      </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
@@ -2226,77 +2232,77 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D125" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" t="s">
         <v>175</v>
       </c>
-      <c r="C125" t="n">
-        <v>3.303</v>
-      </c>
-      <c r="D125" t="s">
-        <v>176</v>
-      </c>
-      <c r="E125" t="s">
-        <v>177</v>
-      </c>
       <c r="F125" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C128" t="n">
-        <v>3.9</v>
+        <v>3.303</v>
       </c>
       <c r="D128" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" t="s">
+        <v>179</v>
+      </c>
+      <c r="F128" t="s">
+        <v>180</v>
+      </c>
+      <c r="G128" t="s">
+        <v>181</v>
+      </c>
+      <c r="H128" t="s">
         <v>182</v>
-      </c>
-      <c r="E128" t="s">
-        <v>183</v>
-      </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" t="s">
         <v>185</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4</v>
-      </c>
-      <c r="D131" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" t="s">
-        <v>12</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -2346,13 +2352,13 @@
         <v>189</v>
       </c>
       <c r="C137" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
@@ -2374,22 +2380,22 @@
         <v>191</v>
       </c>
       <c r="C140" t="n">
-        <v>3.182</v>
+        <v>3.857</v>
       </c>
       <c r="D140" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="F140" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -2399,25 +2405,25 @@
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C143" t="n">
-        <v>3.909</v>
+        <v>3.182</v>
       </c>
       <c r="D143" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E143" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -2427,16 +2433,16 @@
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="C146" t="n">
         <v>3.909</v>
       </c>
       <c r="D146" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E146" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
@@ -2450,24 +2456,24 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="C149" t="n">
-        <v>3.2055</v>
+        <v>3.909</v>
       </c>
       <c r="D149" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E149" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -2478,24 +2484,24 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
+        <v>198</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.2055</v>
+      </c>
+      <c r="D152" t="s">
+        <v>199</v>
+      </c>
+      <c r="E152" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152" t="s">
         <v>201</v>
-      </c>
-      <c r="C152" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D152" t="s">
-        <v>202</v>
-      </c>
-      <c r="E152" t="s">
-        <v>28</v>
-      </c>
-      <c r="F152" t="s">
-        <v>203</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -2506,24 +2512,24 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D155" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="s">
         <v>205</v>
-      </c>
-      <c r="C155" t="n">
-        <v>4</v>
-      </c>
-      <c r="D155" t="s">
-        <v>32</v>
-      </c>
-      <c r="E155" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" t="s">
-        <v>12</v>
       </c>
       <c r="G155" t="s">
         <v>12</v>
@@ -2595,7 +2601,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C164" t="n">
         <v>4</v>
@@ -2613,6 +2619,34 @@
         <v>12</v>
       </c>
       <c r="H164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" t="s">
+        <v>211</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>32</v>
+      </c>
+      <c r="E167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
         <v>12</v>
       </c>
     </row>
